--- a/testdata/FCfiles/stg/ManageBilling/ManageBilling.xlsx
+++ b/testdata/FCfiles/stg/ManageBilling/ManageBilling.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -354,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1081">
+  <fills count="1137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5757,8 +5757,288 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1080">
+  <borders count="1136">
     <border>
       <left/>
       <right/>
@@ -9659,11 +9939,207 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="560">
+  <cellXfs count="588">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
@@ -10229,7 +10705,35 @@
     <xf applyBorder="true" applyFill="true" borderId="1073" fillId="1074" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1075" fillId="1076" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1077" fillId="1078" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="1080" borderId="1079" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="1079" fillId="1080" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1081" fillId="1082" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1083" fillId="1084" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1085" fillId="1086" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1087" fillId="1088" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1089" fillId="1090" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1091" fillId="1092" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1093" fillId="1094" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1095" fillId="1096" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1097" fillId="1098" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1099" fillId="1100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1101" fillId="1102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1103" fillId="1104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1105" fillId="1106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1107" fillId="1108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1109" fillId="1110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1111" fillId="1112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1113" fillId="1114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1115" fillId="1116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1117" fillId="1118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1119" fillId="1120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1121" fillId="1122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1123" fillId="1124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1125" fillId="1126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1127" fillId="1128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1129" fillId="1130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1131" fillId="1132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1133" fillId="1134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1136" borderId="1135" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -10646,11 +11150,11 @@
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="547" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="546" t="s">
-        <v>99</v>
+      <c r="C2" s="575" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="574" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -10693,11 +11197,11 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="549" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="548" t="s">
-        <v>99</v>
+      <c r="C3" s="577" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="576" t="s">
+        <v>91</v>
       </c>
       <c r="E3" s="12">
         <v>400</v>
@@ -10740,11 +11244,11 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="551" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="550" t="s">
-        <v>99</v>
+      <c r="C4" s="579" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="578" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="12">
         <v>400</v>
@@ -10787,11 +11291,11 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="553" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="552" t="s">
-        <v>99</v>
+      <c r="C5" s="581" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="580" t="s">
+        <v>91</v>
       </c>
       <c r="E5" s="12">
         <v>400</v>
@@ -10834,11 +11338,11 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="555" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="554" t="s">
-        <v>99</v>
+      <c r="C6" s="583" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="582" t="s">
+        <v>91</v>
       </c>
       <c r="E6" s="12">
         <v>156.47999999999999</v>
@@ -10881,11 +11385,11 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="557" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="556" t="s">
-        <v>99</v>
+      <c r="C7" s="585" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="584" t="s">
+        <v>91</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -10928,11 +11432,11 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="559" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="558" t="s">
-        <v>99</v>
+      <c r="C8" s="587" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="586" t="s">
+        <v>91</v>
       </c>
       <c r="E8" s="7">
         <v>2000</v>

--- a/testdata/FCfiles/stg/ManageBilling/ManageBilling.xlsx
+++ b/testdata/FCfiles/stg/ManageBilling/ManageBilling.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -339,6 +339,30 @@
   <si>
     <t>51526984+8</t>
   </si>
+  <si>
+    <t>59070065</t>
+  </si>
+  <si>
+    <t>59070065+2</t>
+  </si>
+  <si>
+    <t>59070065+3</t>
+  </si>
+  <si>
+    <t>59070065+4</t>
+  </si>
+  <si>
+    <t>59070065+5</t>
+  </si>
+  <si>
+    <t>59070065+6</t>
+  </si>
+  <si>
+    <t>59070065+7</t>
+  </si>
+  <si>
+    <t>59070065+8</t>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1137">
+  <fills count="1349">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6037,8 +6061,1068 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1136">
+  <borders count="1348">
     <border>
       <left/>
       <right/>
@@ -10135,11 +11219,753 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="694">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
@@ -10733,7 +12559,113 @@
     <xf applyBorder="true" applyFill="true" borderId="1129" fillId="1130" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1131" fillId="1132" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="1133" fillId="1134" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="1136" borderId="1135" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="1135" fillId="1136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1137" fillId="1138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1139" fillId="1140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1141" fillId="1142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1143" fillId="1144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1145" fillId="1146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1147" fillId="1148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1149" fillId="1150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1151" fillId="1152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1153" fillId="1154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1155" fillId="1156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1157" fillId="1158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1159" fillId="1160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1161" fillId="1162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1163" fillId="1164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1165" fillId="1166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1167" fillId="1168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1169" fillId="1170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1171" fillId="1172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1173" fillId="1174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1175" fillId="1176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1177" fillId="1178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1179" fillId="1180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1181" fillId="1182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1183" fillId="1184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1185" fillId="1186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1187" fillId="1188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1189" fillId="1190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1191" fillId="1192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1193" fillId="1194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1195" fillId="1196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1197" fillId="1198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1199" fillId="1200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1201" fillId="1202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1203" fillId="1204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1205" fillId="1206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1207" fillId="1208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1209" fillId="1210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1211" fillId="1212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1213" fillId="1214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1215" fillId="1216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1217" fillId="1218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1219" fillId="1220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1221" fillId="1222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1223" fillId="1224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1225" fillId="1226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1227" fillId="1228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1229" fillId="1230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1231" fillId="1232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1233" fillId="1234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1235" fillId="1236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1237" fillId="1238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1239" fillId="1240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1241" fillId="1242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1243" fillId="1244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1245" fillId="1246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1247" fillId="1248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1249" fillId="1250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1251" fillId="1252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1253" fillId="1254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1255" fillId="1256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1257" fillId="1258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1259" fillId="1260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1261" fillId="1262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1263" fillId="1264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1265" fillId="1266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1267" fillId="1268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1269" fillId="1270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1271" fillId="1272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1273" fillId="1274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1275" fillId="1276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1277" fillId="1278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1279" fillId="1280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1281" fillId="1282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1283" fillId="1284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1285" fillId="1286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1287" fillId="1288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1289" fillId="1290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1291" fillId="1292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1293" fillId="1294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1295" fillId="1296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1297" fillId="1298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1299" fillId="1300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1301" fillId="1302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1303" fillId="1304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1305" fillId="1306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1307" fillId="1308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1309" fillId="1310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1311" fillId="1312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1313" fillId="1314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1315" fillId="1316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1317" fillId="1318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1319" fillId="1320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1321" fillId="1322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1323" fillId="1324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1325" fillId="1326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1327" fillId="1328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1329" fillId="1330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1331" fillId="1332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1333" fillId="1334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1335" fillId="1336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1337" fillId="1338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1339" fillId="1340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1341" fillId="1342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1343" fillId="1344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="1345" fillId="1346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="1348" borderId="1347" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -11150,11 +13082,11 @@
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="575" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="574" t="s">
-        <v>91</v>
+      <c r="C2" s="603" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="602" t="s">
+        <v>107</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
@@ -11197,11 +13129,11 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="577" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="576" t="s">
-        <v>91</v>
+      <c r="C3" s="605" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="604" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="12">
         <v>400</v>
@@ -11244,11 +13176,11 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="579" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="578" t="s">
-        <v>91</v>
+      <c r="C4" s="637" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="636" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="12">
         <v>400</v>
@@ -11291,11 +13223,11 @@
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="581" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="580" t="s">
-        <v>91</v>
+      <c r="C5" s="639" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="638" t="s">
+        <v>107</v>
       </c>
       <c r="E5" s="12">
         <v>400</v>
@@ -11338,11 +13270,11 @@
       <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="583" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="582" t="s">
-        <v>91</v>
+      <c r="C6" s="689" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="688" t="s">
+        <v>107</v>
       </c>
       <c r="E6" s="12">
         <v>156.47999999999999</v>
@@ -11385,11 +13317,11 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="585" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="584" t="s">
-        <v>91</v>
+      <c r="C7" s="691" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="690" t="s">
+        <v>107</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -11432,11 +13364,11 @@
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="587" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="586" t="s">
-        <v>91</v>
+      <c r="C8" s="693" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="692" t="s">
+        <v>107</v>
       </c>
       <c r="E8" s="7">
         <v>2000</v>
